--- a/teaching/traditional_assets/database/data/bermuda/bermuda_brokerage_investment_banking.xlsx
+++ b/teaching/traditional_assets/database/data/bermuda/bermuda_brokerage_investment_banking.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.07820000000000001</v>
+        <v>0.00369</v>
       </c>
       <c r="E2">
-        <v>0.156715</v>
+        <v>-0.22</v>
       </c>
       <c r="F2">
         <v>0.12</v>
@@ -606,91 +606,91 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.02312057096989528</v>
+        <v>-0.0203691866454293</v>
       </c>
       <c r="J2">
-        <v>-0.02048052437775143</v>
+        <v>-0.01450471814146774</v>
       </c>
       <c r="K2">
-        <v>325.11</v>
+        <v>289.5</v>
       </c>
       <c r="L2">
-        <v>0.1265413358243811</v>
+        <v>0.1198360791456246</v>
       </c>
       <c r="M2">
-        <v>879.5</v>
+        <v>356.6</v>
       </c>
       <c r="N2">
-        <v>0.2111695358832145</v>
+        <v>0.08026289135474579</v>
       </c>
       <c r="O2">
-        <v>2.70523822706161</v>
+        <v>1.231778929188256</v>
       </c>
       <c r="P2">
-        <v>202.9</v>
+        <v>197</v>
       </c>
       <c r="Q2">
-        <v>0.04871665586208553</v>
+        <v>0.04434040829188143</v>
       </c>
       <c r="R2">
-        <v>0.6240964596598075</v>
+        <v>0.6804835924006909</v>
       </c>
       <c r="S2">
-        <v>676.6</v>
+        <v>159.6</v>
       </c>
       <c r="T2">
-        <v>0.769300739056282</v>
+        <v>0.4475602916432979</v>
       </c>
       <c r="U2">
-        <v>964.66</v>
+        <v>1109.7</v>
       </c>
       <c r="V2">
-        <v>0.2316166054407069</v>
+        <v>0.2497692948299534</v>
       </c>
       <c r="W2">
-        <v>0.2120121959382572</v>
+        <v>0.4719595696119987</v>
       </c>
       <c r="X2">
-        <v>0.0565536316438093</v>
+        <v>0.04624340514724566</v>
       </c>
       <c r="Y2">
-        <v>0.1554585642944479</v>
+        <v>0.425716164464753</v>
       </c>
       <c r="Z2">
-        <v>1.320046648545126</v>
+        <v>1.280885220620396</v>
       </c>
       <c r="AA2">
-        <v>-0.008885524935477332</v>
+        <v>-0.01857887909667058</v>
       </c>
       <c r="AB2">
-        <v>0.04962736975320003</v>
+        <v>0.03892414395907518</v>
       </c>
       <c r="AC2">
-        <v>-0.05851289468867736</v>
+        <v>-0.05750302305574576</v>
       </c>
       <c r="AD2">
-        <v>2560.073</v>
+        <v>1967.4</v>
       </c>
       <c r="AE2">
-        <v>731.7418546792748</v>
+        <v>691.5394054901406</v>
       </c>
       <c r="AF2">
-        <v>3291.814854679275</v>
+        <v>2658.93940549014</v>
       </c>
       <c r="AG2">
-        <v>2327.154854679275</v>
+        <v>1549.23940549014</v>
       </c>
       <c r="AH2">
-        <v>0.4414564481587463</v>
+        <v>0.3744015111683072</v>
       </c>
       <c r="AI2">
-        <v>0.8231976158704389</v>
+        <v>0.7734782773445161</v>
       </c>
       <c r="AJ2">
-        <v>0.3584619826497512</v>
+        <v>0.2585452875263033</v>
       </c>
       <c r="AK2">
-        <v>0.7669861843374064</v>
+        <v>0.6654981662479968</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>29.44406362496693</v>
+        <v>22.08080808080808</v>
       </c>
       <c r="AP2">
-        <v>26.76521161948399</v>
+        <v>17.38764764859866</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +713,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LOM Financial Limited (BER:LOM.BH)</t>
+          <t>Lazard Ltd (NYSE:LAZ)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -722,10 +722,13 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.132</v>
+        <v>0.00369</v>
       </c>
       <c r="E3">
-        <v>0.304</v>
+        <v>-0.22</v>
+      </c>
+      <c r="F3">
+        <v>0.12</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -734,88 +737,91 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.006547584496847377</v>
+        <v>-0.0203691866454293</v>
       </c>
       <c r="J3">
-        <v>0.006547584496847377</v>
+        <v>-0.01450471814146774</v>
       </c>
       <c r="K3">
-        <v>2.21</v>
+        <v>289.5</v>
       </c>
       <c r="L3">
-        <v>0.1637037037037037</v>
+        <v>0.1198360791456246</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>356.6</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.08026289135474579</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>1.231778929188256</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>197</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.04434040829188143</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0.6804835924006909</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>159.6</v>
+      </c>
+      <c r="T3">
+        <v>0.4475602916432979</v>
       </c>
       <c r="U3">
-        <v>5.66</v>
+        <v>1109.7</v>
       </c>
       <c r="V3">
-        <v>0.3493827160493828</v>
+        <v>0.2497692948299534</v>
       </c>
       <c r="W3">
-        <v>0.1214285714285714</v>
+        <v>0.4719595696119987</v>
       </c>
       <c r="X3">
-        <v>0.04664089278424182</v>
+        <v>0.04624340514724566</v>
       </c>
       <c r="Y3">
-        <v>0.07478767864432961</v>
+        <v>0.425716164464753</v>
       </c>
       <c r="Z3">
-        <v>0.9155001470539611</v>
+        <v>1.280885220620396</v>
       </c>
       <c r="AA3">
-        <v>0.00599431456971201</v>
+        <v>-0.01857887909667058</v>
       </c>
       <c r="AB3">
-        <v>0.04657965967945075</v>
+        <v>0.03892414395907518</v>
       </c>
       <c r="AC3">
-        <v>-0.04058534510973874</v>
+        <v>-0.05750302305574576</v>
       </c>
       <c r="AD3">
-        <v>0.373</v>
+        <v>1967.4</v>
       </c>
       <c r="AE3">
-        <v>0.293038046462802</v>
+        <v>691.5394054901406</v>
       </c>
       <c r="AF3">
-        <v>0.666038046462802</v>
+        <v>2658.93940549014</v>
       </c>
       <c r="AG3">
-        <v>-4.993961953537198</v>
+        <v>1549.23940549014</v>
       </c>
       <c r="AH3">
-        <v>0.03948989351429132</v>
+        <v>0.3744015111683072</v>
       </c>
       <c r="AI3">
-        <v>0.03102752566734374</v>
+        <v>0.7734782773445161</v>
       </c>
       <c r="AJ3">
-        <v>-0.4456492056185324</v>
+        <v>0.2585452875263033</v>
       </c>
       <c r="AK3">
-        <v>-0.3159527984721501</v>
+        <v>0.6654981662479968</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -824,141 +830,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>2.537414965986394</v>
+        <v>22.08080808080808</v>
       </c>
       <c r="AP3">
-        <v>-33.97253029617142</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Bermuda</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Lazard Ltd (NYSE:LAZ)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Brokerage &amp; Investment Banking</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>0.0244</v>
-      </c>
-      <c r="E4">
-        <v>0.009429999999999999</v>
-      </c>
-      <c r="F4">
-        <v>0.12</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>-0.02327728736806448</v>
-      </c>
-      <c r="J4">
-        <v>-0.0179614045319158</v>
-      </c>
-      <c r="K4">
-        <v>322.9</v>
-      </c>
-      <c r="L4">
-        <v>0.1263450326720664</v>
-      </c>
-      <c r="M4">
-        <v>879.5</v>
-      </c>
-      <c r="N4">
-        <v>0.2119941186395738</v>
-      </c>
-      <c r="O4">
-        <v>2.72375348405079</v>
-      </c>
-      <c r="P4">
-        <v>202.9</v>
-      </c>
-      <c r="Q4">
-        <v>0.04890688649456457</v>
-      </c>
-      <c r="R4">
-        <v>0.6283679157633943</v>
-      </c>
-      <c r="S4">
-        <v>676.6</v>
-      </c>
-      <c r="T4">
-        <v>0.769300739056282</v>
-      </c>
-      <c r="U4">
-        <v>959</v>
-      </c>
-      <c r="V4">
-        <v>0.2311567478969316</v>
-      </c>
-      <c r="W4">
-        <v>0.302595820447943</v>
-      </c>
-      <c r="X4">
-        <v>0.0664663705033768</v>
-      </c>
-      <c r="Y4">
-        <v>0.2361294499445662</v>
-      </c>
-      <c r="Z4">
-        <v>1.323135081025415</v>
-      </c>
-      <c r="AA4">
-        <v>-0.02376536444066667</v>
-      </c>
-      <c r="AB4">
-        <v>0.05267507982694931</v>
-      </c>
-      <c r="AC4">
-        <v>-0.07644044426761598</v>
-      </c>
-      <c r="AD4">
-        <v>2559.7</v>
-      </c>
-      <c r="AE4">
-        <v>731.4488166328119</v>
-      </c>
-      <c r="AF4">
-        <v>3291.148816632812</v>
-      </c>
-      <c r="AG4">
-        <v>2332.148816632812</v>
-      </c>
-      <c r="AH4">
-        <v>0.4423677009773361</v>
-      </c>
-      <c r="AI4">
-        <v>0.8274730149062132</v>
-      </c>
-      <c r="AJ4">
-        <v>0.3598523715979078</v>
-      </c>
-      <c r="AK4">
-        <v>0.7726571573773551</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>29.48963133640553</v>
-      </c>
-      <c r="AP4">
-        <v>26.86807392434115</v>
+        <v>17.38764764859866</v>
       </c>
     </row>
   </sheetData>
